--- a/assetIssues-report.xlsx
+++ b/assetIssues-report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>assetIssueId</t>
   </si>
@@ -53,16 +53,64 @@
     <t>2022-04-29 09:50:53.0</t>
   </si>
   <si>
+    <t>jndsfkdshfgfhj</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>AI3GWi8CH569</t>
+  </si>
+  <si>
+    <t>ASScjEv4eu295</t>
+  </si>
+  <si>
+    <t>PRO_Mip8sKy546</t>
+  </si>
+  <si>
+    <t>2022-04-29 09:23:22.0</t>
+  </si>
+  <si>
     <t>key board issue</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>OPEN</t>
-  </si>
-  <si>
-    <t/>
+    <t>AIyaluCBO178</t>
+  </si>
+  <si>
+    <t>2022-04-29 09:23:54.0</t>
+  </si>
+  <si>
+    <t>kmmmmmmmmm</t>
+  </si>
+  <si>
+    <t>AIMJQasTZ722</t>
+  </si>
+  <si>
+    <t>2022-04-29 09:24:05.0</t>
+  </si>
+  <si>
+    <t>mmmmmmmmmm</t>
+  </si>
+  <si>
+    <t>AIKHiBrmH492</t>
+  </si>
+  <si>
+    <t>2022-04-29 09:26:47.0</t>
+  </si>
+  <si>
+    <t>ksncksndckwncknchkjncwkjniwjnbksncksndckwncknchkjncwkjniwjnbcihewbkiwebcikewbcikwebcikwbciwebiwhnjhnhnjhnjuhujhnujhujhujhuhihuhuhiksncksndckwncknchkjncwkjniwjnbcihewbkiwebcikewbcikwebcikwbciwebiwhnjhnhnjhnjuhujhnujhujhujhuhihuhuhiksncksndckwncknchkjncwkjniwjnbcihewbkiwebcikewbcikwebcikwbciwebiwhnjhnhnjhnjuhujhnujhujhujhuhihuhuhiksncksndckwncknchkjncwkjniwjnbcihewbkiwebcikewbcikwebcikwbciwebiwhnjhnhnjhnjuhujhnujhujhujhuhihuhuhicihewbkiwebcikewbcikwebcikwbciwebiwhnjhnhnjhnjuhujhnujhujhujhuhihuhuhi</t>
+  </si>
+  <si>
+    <t>AITkAjFKs298</t>
+  </si>
+  <si>
+    <t>2022-04-29 09:30:44.0</t>
   </si>
 </sst>
 </file>
@@ -107,7 +155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -171,6 +219,151 @@
         <v>16</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/assetIssues-report.xlsx
+++ b/assetIssues-report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>assetIssueId</t>
   </si>
@@ -104,13 +104,28 @@
     <t>2022-04-29 09:26:47.0</t>
   </si>
   <si>
+    <t>jfgkdfgewrfgdfdf</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>2022-04-29 12:29:06.0</t>
+  </si>
+  <si>
+    <t>ddhjdfjdfshjdf</t>
+  </si>
+  <si>
+    <t>AITkAjFKs298</t>
+  </si>
+  <si>
+    <t>2022-04-29 09:30:44.0</t>
+  </si>
+  <si>
     <t>ksncksndckwncknchkjncwkjniwjnbksncksndckwncknchkjncwkjniwjnbcihewbkiwebcikewbcikwebcikwbciwebiwhnjhnhnjhnjuhujhnujhujhujhuhihuhuhiksncksndckwncknchkjncwkjniwjnbcihewbkiwebcikewbcikwebcikwbciwebiwhnjhnhnjhnjuhujhnujhujhujhuhihuhuhiksncksndckwncknchkjncwkjniwjnbcihewbkiwebcikewbcikwebcikwbciwebiwhnjhnhnjhnjuhujhnujhujhujhuhihuhuhiksncksndckwncknchkjncwkjniwjnbcihewbkiwebcikewbcikwebcikwbciwebiwhnjhnhnjhnjuhujhnujhujhujhuhihuhuhicihewbkiwebcikewbcikwebcikwbciwebiwhnjhnhnjhnjuhujhnujhujhujhuhihuhuhi</t>
-  </si>
-  <si>
-    <t>AITkAjFKs298</t>
-  </si>
-  <si>
-    <t>2022-04-29 09:30:44.0</t>
   </si>
 </sst>
 </file>
@@ -323,21 +338,21 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -346,10 +361,10 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>

--- a/assetIssues-report.xlsx
+++ b/assetIssues-report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
   <si>
     <t>assetIssueId</t>
   </si>
@@ -41,45 +41,114 @@
     <t>comments</t>
   </si>
   <si>
+    <t>AIih96dbM965</t>
+  </si>
+  <si>
+    <t>ASSFwKtRPU302</t>
+  </si>
+  <si>
+    <t>PRO_4re6rkn333</t>
+  </si>
+  <si>
+    <t>2022-04-28 17:56:21.0</t>
+  </si>
+  <si>
+    <t>key board issue</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>AITkAjFKs298</t>
+  </si>
+  <si>
+    <t>ASScjEv4eu295</t>
+  </si>
+  <si>
+    <t>2022-04-29 09:30:44.0</t>
+  </si>
+  <si>
+    <t>ksncksndckwncknchkjncwkjniwjnbksncksndckwncknchkjncwkjniwjnbcihewbkiwebcikewbcikwebcikwbciwebiwhnjhnhnjhnjuhujhnujhujhujhuhihuhuhiksncksndckwncknchkjncwkjniwjnbcihewbkiwebcikewbcikwebcikwbciwebiwhnjhnhnjhnjuhujhnujhujhujhuhihuhuhiksncksndckwncknchkjncwkjniwjnbcihewbkiwebcikewbcikwebcikwbciwebiwhnjhnhnjhnjuhujhnujhujhujhuhihuhuhiksncksndckwncknchkjncwkjniwjnbcihewbkiwebcikewbcikwebcikwbciwebiwhnjhnhnjhnjuhujhnujhujhujhuhihuhuhicihewbkiwebcikewbcikwebcikwbciwebiwhnjhnhnjhnjuhujhnujhujhujhuhihuhuhi</t>
+  </si>
+  <si>
+    <t>AIaqcktxZ758</t>
+  </si>
+  <si>
+    <t>ASSPZWAjGI771</t>
+  </si>
+  <si>
+    <t>PRO_GLBSnlo418</t>
+  </si>
+  <si>
+    <t>2022-04-28 17:48:29.0</t>
+  </si>
+  <si>
+    <t>AIZiRJ4uT132</t>
+  </si>
+  <si>
+    <t>2022-04-28 17:49:14.0</t>
+  </si>
+  <si>
+    <t>jfgkdfgewrfgdfdf</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>2022-05-04 10:25:52.0</t>
+  </si>
+  <si>
+    <t>ddhjdfjdfshjdf</t>
+  </si>
+  <si>
     <t>AIRtBWUqG183</t>
   </si>
   <si>
-    <t>ASSFwKtRPU302</t>
-  </si>
-  <si>
-    <t>PRO_GLBSnlo418</t>
-  </si>
-  <si>
     <t>2022-04-29 09:50:53.0</t>
   </si>
   <si>
     <t>jndsfkdshfgfhj</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>OPEN</t>
-  </si>
-  <si>
-    <t/>
+    <t>AINrAMnoj559</t>
+  </si>
+  <si>
+    <t>2022-05-02 15:03:48.0</t>
+  </si>
+  <si>
+    <t>AIkrQAZUS841</t>
+  </si>
+  <si>
+    <t>2022-05-04 10:22:49.0</t>
+  </si>
+  <si>
+    <t>ghhdgjhsdfhdsj</t>
+  </si>
+  <si>
+    <t>DAMAGE</t>
+  </si>
+  <si>
+    <t>2022-05-04 10:26:24.0</t>
   </si>
   <si>
     <t>AI3GWi8CH569</t>
   </si>
   <si>
-    <t>ASScjEv4eu295</t>
-  </si>
-  <si>
     <t>PRO_Mip8sKy546</t>
   </si>
   <si>
     <t>2022-04-29 09:23:22.0</t>
   </si>
   <si>
-    <t>key board issue</t>
-  </si>
-  <si>
     <t>AIyaluCBO178</t>
   </si>
   <si>
@@ -104,28 +173,7 @@
     <t>2022-04-29 09:26:47.0</t>
   </si>
   <si>
-    <t>jfgkdfgewrfgdfdf</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>CLOSE</t>
-  </si>
-  <si>
     <t>2022-04-29 12:29:06.0</t>
-  </si>
-  <si>
-    <t>ddhjdfjdfshjdf</t>
-  </si>
-  <si>
-    <t>AITkAjFKs298</t>
-  </si>
-  <si>
-    <t>2022-04-29 09:30:44.0</t>
-  </si>
-  <si>
-    <t>ksncksndckwncknchkjncwkjniwjnbksncksndckwncknchkjncwkjniwjnbcihewbkiwebcikewbcikwebcikwbciwebiwhnjhnhnjhnjuhujhnujhujhujhuhihuhuhiksncksndckwncknchkjncwkjniwjnbcihewbkiwebcikewbcikwebcikwbciwebiwhnjhnhnjhnjuhujhnujhujhujhuhihuhuhiksncksndckwncknchkjncwkjniwjnbcihewbkiwebcikewbcikwebcikwbciwebiwhnjhnhnjhnjuhujhnujhujhujhuhihuhuhiksncksndckwncknchkjncwkjniwjnbcihewbkiwebcikewbcikwebcikwbciwebiwhnjhnhnjhnjuhujhnujhujhujhuhihuhuhicihewbkiwebcikewbcikwebcikwbciwebiwhnjhnhnjhnjuhujhnujhujhujhuhihuhuhi</t>
   </si>
 </sst>
 </file>
@@ -170,7 +218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -242,13 +290,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -265,19 +313,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -297,10 +345,10 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -309,45 +357,45 @@
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -355,28 +403,173 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
       </c>
       <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
